--- a/工作流/PrlDZ_Fee_费用申请单设计.xlsx
+++ b/工作流/PrlDZ_Fee_费用申请单设计.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\化炫\GitWeb\鹏瑞利内部网\工作流\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyWeb\prehoa\工作流\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="16980" yWindow="0" windowWidth="18150" windowHeight="12390" activeTab="2"/>
+    <workbookView xWindow="18150" yWindow="0" windowWidth="18150" windowHeight="12390" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="功能概述" sheetId="1" r:id="rId1"/>
@@ -1798,23 +1798,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2482,7 +2469,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
@@ -2766,8 +2753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H138"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="D93" sqref="D93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
